--- a/Actions.xlsx
+++ b/Actions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA06F06F-D0A4-4484-84DF-633B95D5FBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5DECF-6895-40FD-A8C7-4A62707D9ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="64">
   <si>
     <t>Action</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Rolamento para trás</t>
   </si>
   <si>
-    <t>pode ser feito quando as seguintes ações estão sendo executadas:</t>
-  </si>
-  <si>
     <t>Andando</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>VOID</t>
+  </si>
+  <si>
+    <t>Numero da animação</t>
+  </si>
+  <si>
+    <t>Pode ser feito quando as seguintes ações estão sendo executadas:</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,11 +627,12 @@
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="87.5703125" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="87.5703125" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,14 +642,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -655,19 +662,23 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -677,14 +688,17 @@
       <c r="C4" s="6">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -692,11 +706,14 @@
       <c r="C5" s="6">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>12</v>
@@ -704,16 +721,20 @@
       <c r="C6" s="6">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -723,19 +744,23 @@
       <c r="C8" s="2">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -745,19 +770,23 @@
       <c r="C10" s="6">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -765,16 +794,19 @@
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>19</v>
@@ -782,11 +814,14 @@
       <c r="C13" s="2">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>20</v>
@@ -794,11 +829,14 @@
       <c r="C14" s="2">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -806,11 +844,14 @@
       <c r="C15" s="2">
         <v>43</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -818,16 +859,20 @@
       <c r="C16" s="2">
         <v>44</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>23</v>
       </c>
@@ -835,16 +880,19 @@
         <v>18</v>
       </c>
       <c r="C18" s="6">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
         <v>19</v>
@@ -852,11 +900,14 @@
       <c r="C19" s="6">
         <v>51</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>20</v>
@@ -864,40 +915,50 @@
       <c r="C20" s="6">
         <v>52</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="6">
-        <v>53</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="6">
-        <v>54</v>
-      </c>
-      <c r="D22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="6">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -905,16 +966,19 @@
         <v>18</v>
       </c>
       <c r="C24" s="2">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -922,11 +986,14 @@
       <c r="C25" s="2">
         <v>61</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>20</v>
@@ -934,40 +1001,50 @@
       <c r="C26" s="2">
         <v>62</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="2">
-        <v>63</v>
-      </c>
-      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2">
-        <v>64</v>
-      </c>
-      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="2">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
@@ -975,16 +1052,19 @@
         <v>18</v>
       </c>
       <c r="C30" s="6">
-        <v>10</v>
-      </c>
-      <c r="D30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>33</v>
@@ -992,40 +1072,50 @@
       <c r="C31" s="6">
         <v>71</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="6">
-        <v>72</v>
-      </c>
-      <c r="D32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6">
+        <v>8</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="6">
-        <v>73</v>
-      </c>
-      <c r="D33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="6">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
@@ -1033,16 +1123,19 @@
         <v>18</v>
       </c>
       <c r="C35" s="2">
-        <v>10</v>
-      </c>
-      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1050,11 +1143,14 @@
       <c r="C36" s="2">
         <v>81</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>20</v>
@@ -1062,34 +1158,43 @@
       <c r="C37" s="2">
         <v>82</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="2">
-        <v>83</v>
-      </c>
-      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C39" s="2">
-        <v>84</v>
-      </c>
-      <c r="D39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
@@ -1097,50 +1202,62 @@
         <v>18</v>
       </c>
       <c r="C41" s="6">
-        <v>10</v>
-      </c>
-      <c r="D41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C42" s="6">
         <v>91</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6">
+        <v>11</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="6">
-        <v>92</v>
-      </c>
-      <c r="D43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C44" s="6">
-        <v>93</v>
-      </c>
-      <c r="D44" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="6">
+        <v>9</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>37</v>
       </c>
@@ -1150,19 +1267,23 @@
       <c r="C46" s="2">
         <v>100</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2">
+        <v>12</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>39</v>
       </c>
@@ -1172,14 +1293,17 @@
       <c r="C48" s="6">
         <v>110</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6">
+        <v>13</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
         <v>22</v>
@@ -1187,16 +1311,20 @@
       <c r="C49" s="6">
         <v>111</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6">
+        <v>14</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>42</v>
       </c>
@@ -1206,14 +1334,17 @@
       <c r="C51" s="2">
         <v>120</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2">
+        <v>15</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>42</v>
@@ -1221,11 +1352,14 @@
       <c r="C52" s="2">
         <v>121</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>48</v>
@@ -1233,11 +1367,14 @@
       <c r="C53" s="2">
         <v>122</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2">
+        <v>17</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>44</v>
@@ -1245,16 +1382,20 @@
       <c r="C54" s="2">
         <v>123</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2">
+        <v>18</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -1264,14 +1405,17 @@
       <c r="C56" s="6">
         <v>130</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6">
+        <v>19</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
         <v>42</v>
@@ -1279,11 +1423,14 @@
       <c r="C57" s="6">
         <v>131</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6">
+        <v>20</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
         <v>48</v>
@@ -1291,11 +1438,14 @@
       <c r="C58" s="6">
         <v>132</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6">
+        <v>21</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
         <v>44</v>
@@ -1303,16 +1453,20 @@
       <c r="C59" s="6">
         <v>133</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6">
+        <v>22</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>51</v>
       </c>
@@ -1322,19 +1476,23 @@
       <c r="C61" s="2">
         <v>140</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2">
+        <v>23</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>52</v>
       </c>
@@ -1344,11 +1502,14 @@
       <c r="C63" s="6">
         <v>150</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6">
+        <v>24</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>61</v>
+      <c r="F63" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Actions.xlsx
+++ b/Actions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tudo relacionado ao alegro\Jogo\allegro 4\polimento 3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5DECF-6895-40FD-A8C7-4A62707D9ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BC3E04-3558-4479-8019-5BC286BFD0F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{15F8B2ED-6008-4F94-98C7-31F2244EF8E9}"/>
   </bookViews>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE73BED-717E-4439-BBC8-BF9116A08280}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
